--- a/report/jaipatel@xyz.com_Bot_1_Output.xlsx
+++ b/report/jaipatel@xyz.com_Bot_1_Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85DEC64C-1994-43F7-80E8-595797FC3B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C76271-5A7A-42E8-9EBE-42FFE93B4E7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{0211BAB4-4989-454E-98CB-4E130962F80A}"/>
+    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{81D146F4-A0E3-459C-B541-FDE4CE5797EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">Years </t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Gratuity-Eligibility</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,13 +399,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B899C1-7312-405F-AAFE-88040BCE4BD8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3099EE-68E4-4D83-80E1-2EDA46AE445F}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
